--- a/P&E/PDF/Inferencial/Clase 12 (Método Mínimos Cuadrados).xlsx
+++ b/P&E/PDF/Inferencial/Clase 12 (Método Mínimos Cuadrados).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C09F1D6-ED94-4981-BD0F-474A63D4B712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEAB1BA-5439-4236-9F69-D8E049F19031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="APUNTE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>Fórmula &gt;</t>
   </si>
@@ -612,12 +613,75 @@
   <si>
     <t>n - 2</t>
   </si>
+  <si>
+    <t>Nro de observación (n)</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>media x</t>
+  </si>
+  <si>
+    <t>media y</t>
+  </si>
+  <si>
+    <t>DATOS</t>
+  </si>
+  <si>
+    <t>PARÁMETROS DE LA RECTA</t>
+  </si>
+  <si>
+    <t>a =</t>
+  </si>
+  <si>
+    <t>y =</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>(basado en y = a + bx ::: &lt; ecuación de la recta)</t>
+  </si>
+  <si>
+    <t>a + bx</t>
+  </si>
+  <si>
+    <t>Longitud (y)</t>
+  </si>
+  <si>
+    <t>Díámetro (x)</t>
+  </si>
+  <si>
+    <t>¿QUÉ TAN CONFIABLE ES LA ECUACIÓN HALLADA)</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>( análisis de la regresión ::: &lt; cálculo del error estándar)</t>
+  </si>
+  <si>
+    <t>Se =</t>
+  </si>
+  <si>
+    <t>RAIZ&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos a interpretar el error calculado en el punto anterior. En primer lugar, indicaremos que un valor de Se cercano a 0 indica que los puntos del diagrama de dispersión se ajustan adecuadamente a la recta obtenida. Por el contrario, un valor cercano a 1 nos informa que los puntos se hallan muy dispersos respecto de la recta. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +819,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -839,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -917,6 +1001,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,6 +1042,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -947,11 +1057,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1582,8 +1750,8 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2246704" cy="941925"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1802,7 +1970,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -2636,6 +2804,1239 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2551403" cy="814710"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0633F555-8C9E-4201-76EF-95060AF12CDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="752475" y="3367087"/>
+              <a:ext cx="2551403" cy="814710"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:limLoc m:val="subSup"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="25"/>
+                              </m:rPr>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑦</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̅"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                            <m:acc>
+                              <m:accPr>
+                                <m:chr m:val="̅"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:accPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑦</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:acc>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:limLoc m:val="subSup"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <m:rPr>
+                                <m:brk m:alnAt="25"/>
+                              </m:rPr>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSubSup>
+                              <m:sSubSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSubSup>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:acc>
+                                  <m:accPr>
+                                    <m:chr m:val="̅"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:accPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:acc>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:nary>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0633F555-8C9E-4201-76EF-95060AF12CDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="752475" y="3367087"/>
+              <a:ext cx="2551403" cy="814710"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏=  (∑26_1^𝑛▒〖𝑥_𝑖 𝑦_𝑖−𝑛𝑥 ̅𝑦 ̅ 〗)/(∑26_1^𝑛▒〖𝑥_𝑖^2−𝑛𝑥 ̅^2 〗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1411156" cy="344390"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CD0ED5-98FA-117F-EE23-1F7D1B03B651}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="771525" y="4948237"/>
+              <a:ext cx="1411156" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CuadroTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CD0ED5-98FA-117F-EE23-1F7D1B03B651}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="771525" y="4948237"/>
+              <a:ext cx="1411156" cy="344390"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎=𝑦 ̅−𝑏𝑥 ̅</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4521944" cy="1091196"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADA4939-89E4-95E4-18D6-309883C62853}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5648325" y="452437"/>
+              <a:ext cx="4521944" cy="1091196"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ax-AR" sz="2400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:nary>
+                              <m:naryPr>
+                                <m:chr m:val="∑"/>
+                                <m:limLoc m:val="subSup"/>
+                                <m:ctrlPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:naryPr>
+                              <m:sub>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:brk m:alnAt="25"/>
+                                  </m:rPr>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑛</m:t>
+                                </m:r>
+                              </m:sup>
+                              <m:e>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑎</m:t>
+                                </m:r>
+                                <m:nary>
+                                  <m:naryPr>
+                                    <m:chr m:val="∑"/>
+                                    <m:limLoc m:val="subSup"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:naryPr>
+                                  <m:sub>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:brk m:alnAt="25"/>
+                                      </m:rPr>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑦</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>−</m:t>
+                                    </m:r>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑏</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:nary>
+                                <m:nary>
+                                  <m:naryPr>
+                                    <m:chr m:val="∑"/>
+                                    <m:limLoc m:val="subSup"/>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:naryPr>
+                                  <m:sub>
+                                    <m:r>
+                                      <m:rPr>
+                                        <m:brk m:alnAt="25"/>
+                                      </m:rPr>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑥</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑦</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑖</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:e>
+                                </m:nary>
+                              </m:e>
+                            </m:nary>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CuadroTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADA4939-89E4-95E4-18D6-309883C62853}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5648325" y="452437"/>
+              <a:ext cx="4521944" cy="1091196"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ax-AR" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑒=√((∑26_1^𝑛▒〖𝑦_𝑖^2−𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑2_1^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑦_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗 ∑2_1^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥_𝑖 𝑦_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛−2))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BE76E7E-8B9A-4AC9-81BF-6A9D23853DA7}" name="Tabla1" displayName="Tabla1" ref="A3:F11" totalsRowCount="1" headerRowDxfId="13" dataDxfId="12">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{77341561-C94A-47F2-AF24-976DDF84C682}" name="Nro de observación (n)" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CA020399-0561-4CB1-B296-6F138A9EEB60}" name="Díámetro (x)" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3AD8852E-84FE-4B10-8BD1-94273C4F63D0}" name="Longitud (y)" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{158A4E4C-5779-4361-BC5C-E789C84E0281}" name="xy" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{07206130-6D1B-4EEB-9FB7-B8256A4C1FE7}" name="x^2" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Díámetro (x)]]^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A43D4139-9115-425B-BC7E-A966ED87A62A}" name="y^2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Longitud (y)]]^2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2904,7 +4305,7 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
@@ -2979,15 +4380,15 @@
         <v>18.7346</v>
       </c>
       <c r="M3" s="14">
-        <f>ROUND((L3-$N$15)^2,4)</f>
+        <f t="shared" ref="M3:M8" si="1">ROUND((L3-$N$15)^2,4)</f>
         <v>13.9472</v>
       </c>
       <c r="N3" s="14">
-        <f>(H3-$N$15)^2</f>
+        <f t="shared" ref="N3:N8" si="2">(H3-$N$15)^2</f>
         <v>25</v>
       </c>
       <c r="O3" s="14">
-        <f t="shared" ref="O3:O8" si="1">ROUND((H3-L3)^2,4)</f>
+        <f t="shared" ref="O3:O8" si="3">ROUND((H3-L3)^2,4)</f>
         <v>1.6012</v>
       </c>
     </row>
@@ -2999,15 +4400,15 @@
         <v>19</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I8" si="2">G4*H4</f>
+        <f t="shared" ref="I4:I8" si="4">G4*H4</f>
         <v>133</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J8" si="3">G4^2</f>
+        <f t="shared" ref="J4:J8" si="5">G4^2</f>
         <v>49</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K8" si="4">H4^2</f>
+        <f t="shared" ref="K4:K8" si="6">H4^2</f>
         <v>361</v>
       </c>
       <c r="L4" s="14">
@@ -3015,15 +4416,15 @@
         <v>18.2135</v>
       </c>
       <c r="M4" s="14">
-        <f>ROUND((L4-$N$15)^2,4)</f>
+        <f t="shared" si="1"/>
         <v>10.326599999999999</v>
       </c>
       <c r="N4" s="14">
-        <f>(H4-$N$15)^2</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.61860000000000004</v>
       </c>
     </row>
@@ -3035,15 +4436,15 @@
         <v>15</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="L5" s="14">
@@ -3051,15 +4452,15 @@
         <v>16.650200000000002</v>
       </c>
       <c r="M5" s="14">
-        <f>ROUND((L5-$N$15)^2,4)</f>
+        <f t="shared" si="1"/>
         <v>2.7231999999999998</v>
       </c>
       <c r="N5" s="14">
-        <f>(H5-$N$15)^2</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O5" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7231999999999998</v>
       </c>
     </row>
@@ -3071,15 +4472,15 @@
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="L6" s="14">
@@ -3087,15 +4488,15 @@
         <v>15.608000000000001</v>
       </c>
       <c r="M6" s="14">
-        <f>ROUND((L6-$N$15)^2,4)</f>
+        <f t="shared" si="1"/>
         <v>0.36969999999999997</v>
       </c>
       <c r="N6" s="14">
-        <f>(H6-$N$15)^2</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O6" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5857000000000001</v>
       </c>
     </row>
@@ -3107,15 +4508,15 @@
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="L7" s="14">
@@ -3123,15 +4524,15 @@
         <v>11.4392</v>
       </c>
       <c r="M7" s="14">
-        <f>ROUND((L7-$N$15)^2,4)</f>
+        <f t="shared" si="1"/>
         <v>12.6793</v>
       </c>
       <c r="N7" s="14">
-        <f>(H7-$N$15)^2</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4361000000000002</v>
       </c>
     </row>
@@ -3143,15 +4544,15 @@
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>216</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="L8" s="14">
@@ -3159,15 +4560,15 @@
         <v>9.3547999999999991</v>
       </c>
       <c r="M8" s="14">
-        <f>ROUND((L8-$N$15)^2,4)</f>
+        <f t="shared" si="1"/>
         <v>31.868300000000001</v>
       </c>
       <c r="N8" s="14">
-        <f>(H8-$N$15)^2</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="O8" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12590000000000001</v>
       </c>
     </row>
@@ -3210,15 +4611,15 @@
         <v>90</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" ref="I10:J10" si="5">SUM(I3:I8)</f>
+        <f t="shared" ref="I10:J10" si="7">SUM(I3:I8)</f>
         <v>1047</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1305</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" ref="K10" si="6">SUM(K3:K8)</f>
+        <f t="shared" ref="K10" si="8">SUM(K3:K8)</f>
         <v>1432</v>
       </c>
       <c r="L10" s="21"/>
@@ -3281,14 +4682,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="H15" s="7">
         <f>COUNT(G3:G8)</f>
         <v>6</v>
@@ -3303,92 +4704,92 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="H17" s="38" t="str">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="48" t="str">
         <f>"-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)"</f>
         <v>-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="H21" s="33" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="H21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="34" t="s">
+      <c r="J21" s="49"/>
+      <c r="K21" s="43" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="3">
         <f>I10-H10*G10/6</f>
         <v>-138</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="M21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="41">
         <f>ROUND(L21/L22,4)</f>
         <v>-0.52110000000000001</v>
       </c>
@@ -3412,28 +4813,28 @@
       <c r="F22" s="7">
         <v>9</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="40" t="s">
+      <c r="H22" s="42"/>
+      <c r="I22" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="34"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="2">
         <f>ROUND(J10-G10^2/6,4)</f>
         <v>264.83330000000001</v>
       </c>
-      <c r="M22" s="34"/>
-      <c r="N22" s="32"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -3454,60 +4855,60 @@
       <c r="F24" s="7">
         <v>24</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
       <c r="H28" s="4" t="s">
         <v>42</v>
       </c>
@@ -3520,20 +4921,20 @@
       <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
       <c r="H30" s="4" t="s">
         <v>43</v>
       </c>
@@ -3546,20 +4947,20 @@
       <c r="A31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -3575,7 +4976,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="43" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -3586,10 +4987,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="H38" s="34"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="2" t="s">
         <v>32</v>
       </c>
@@ -3608,40 +5009,40 @@
         <f>I10-H15*N15*K15</f>
         <v>-138.00300000000016</v>
       </c>
-      <c r="F39" s="30"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F40" s="30"/>
-      <c r="H40" s="33" t="s">
+      <c r="F40" s="46"/>
+      <c r="H40" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="34" t="str">
+      <c r="I40" s="43" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="34" t="str">
+      <c r="K40" s="43" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="42">
         <f>ROUND(M10/N10,4)</f>
         <v>0.877</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K41" s="34"/>
-      <c r="L41" s="33"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="42"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="46" t="s">
         <v>60</v>
       </c>
       <c r="H44" t="s">
@@ -3659,10 +5060,10 @@
         <f>J10-H15*K15^2</f>
         <v>264.82806665999988</v>
       </c>
-      <c r="F45" s="30"/>
+      <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F46" s="30"/>
+      <c r="F46" s="46"/>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="20.25" x14ac:dyDescent="0.35">
@@ -3679,30 +5080,30 @@
       <c r="F51" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="34" t="str">
+      <c r="I51" s="43" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J51" s="35" t="s">
+      <c r="J51" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="32">
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="41">
         <f>(E39/SQRT(E45*E51))^2</f>
         <v>0.87699919060292209</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H52" s="33"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="32"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="41"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -3713,40 +5114,40 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="31" t="str">
+      <c r="C56" s="40" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D56" s="28">
         <v>10.0907</v>
       </c>
-      <c r="E56" s="31" t="str">
+      <c r="E56" s="40" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="41">
         <f>ROUND(D56/4,4)</f>
         <v>2.5226999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="31"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="31"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="29" t="str">
         <f>"6 - 2"</f>
         <v>6 - 2</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -3758,15 +5159,12 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="N21:N22"/>
+    <mergeCell ref="F44:F46"/>
     <mergeCell ref="A15:F19"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="B26:F28"/>
     <mergeCell ref="B29:F30"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:L52"/>
     <mergeCell ref="B31:F32"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="K40:K41"/>
@@ -3774,15 +5172,447 @@
     <mergeCell ref="L40:L41"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F44:F46"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:L52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC737F11-7792-42E4-866C-5493A185EE12}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="C4" s="31">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</f>
+        <v>13.65</v>
+      </c>
+      <c r="E4" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]^2</f>
+        <v>4.41</v>
+      </c>
+      <c r="F4" s="31">
+        <f>Tabla1[[#This Row],[Longitud (y)]]^2</f>
+        <v>42.25</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="31">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D5" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</f>
+        <v>94.050000000000011</v>
+      </c>
+      <c r="E5" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]^2</f>
+        <v>30.25</v>
+      </c>
+      <c r="F5" s="31">
+        <f>Tabla1[[#This Row],[Longitud (y)]]^2</f>
+        <v>292.41000000000003</v>
+      </c>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31">
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]^2</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="31">
+        <f>Tabla1[[#This Row],[Longitud (y)]]^2</f>
+        <v>156.25</v>
+      </c>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>3.8</v>
+      </c>
+      <c r="C7" s="31">
+        <v>12</v>
+      </c>
+      <c r="D7" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</f>
+        <v>45.599999999999994</v>
+      </c>
+      <c r="E7" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]^2</f>
+        <v>14.44</v>
+      </c>
+      <c r="F7" s="31">
+        <f>Tabla1[[#This Row],[Longitud (y)]]^2</f>
+        <v>144</v>
+      </c>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="31">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D8" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</f>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="E8" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]^2</f>
+        <v>36</v>
+      </c>
+      <c r="F8" s="31">
+        <f>Tabla1[[#This Row],[Longitud (y)]]^2</f>
+        <v>357.20999999999992</v>
+      </c>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="31">
+        <v>11</v>
+      </c>
+      <c r="D9" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</f>
+        <v>38.5</v>
+      </c>
+      <c r="E9" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]^2</f>
+        <v>12.25</v>
+      </c>
+      <c r="F9" s="31">
+        <f>Tabla1[[#This Row],[Longitud (y)]]^2</f>
+        <v>121</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="32">
+        <f>Tabla1[[#Totals],[y^2]]</f>
+        <v>1320.48</v>
+      </c>
+      <c r="K9" s="32">
+        <f>B29*Tabla1[[#Totals],[Longitud (y)]]</f>
+        <v>-4.8661581604049671</v>
+      </c>
+      <c r="L9" s="32">
+        <f>D24*Tabla1[[#Totals],[xy]]</f>
+        <v>1325.3023443634338</v>
+      </c>
+      <c r="M9" s="41">
+        <f>SQRT((J9-K9-L9)/K10)</f>
+        <v>9.3609611655115707E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10" s="31">
+        <v>14.4</v>
+      </c>
+      <c r="D10" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]*Tabla1[[#This Row],[Longitud (y)]]</f>
+        <v>66.239999999999995</v>
+      </c>
+      <c r="E10" s="31">
+        <f>Tabla1[[#This Row],[Díámetro (x)]]^2</f>
+        <v>21.159999999999997</v>
+      </c>
+      <c r="F10" s="31">
+        <f>Tabla1[[#This Row],[Longitud (y)]]^2</f>
+        <v>207.36</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="51"/>
+      <c r="K10" s="2">
+        <f>7-2</f>
+        <v>5</v>
+      </c>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="31">
+        <f>SUBTOTAL(109,Tabla1[Díámetro (x)])</f>
+        <v>29.5</v>
+      </c>
+      <c r="C11" s="31">
+        <f>SUBTOTAL(109,Tabla1[Longitud (y)])</f>
+        <v>92.4</v>
+      </c>
+      <c r="D11" s="31">
+        <f>SUBTOTAL(109,Tabla1[xy])</f>
+        <v>421.44</v>
+      </c>
+      <c r="E11" s="31">
+        <f>SUBTOTAL(109,Tabla1[x^2])</f>
+        <v>134.51</v>
+      </c>
+      <c r="F11" s="31">
+        <f>SUBTOTAL(109,Tabla1[y^2])</f>
+        <v>1320.48</v>
+      </c>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <f>Tabla1[[#Totals],[Díámetro (x)]]/7</f>
+        <v>4.2142857142857144</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14">
+        <f>Tabla1[[#Totals],[Longitud (y)]]/7</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="33">
+        <f>Tabla1[[#Totals],[xy]]-7*B13*B14</f>
+        <v>32.039999999999964</v>
+      </c>
+      <c r="C24" s="43" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D24" s="42">
+        <f>B24/B25</f>
+        <v>3.1446999439147536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="52"/>
+      <c r="B25">
+        <f>Tabla1[[#Totals],[x^2]]-7*B13^2</f>
+        <v>10.188571428571407</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <f>B14-D24*B13</f>
+        <v>-5.2664049355032105E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="38">
+        <f>B29</f>
+        <v>-5.2664049355032105E-2</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="38">
+        <f>D24</f>
+        <v>3.1446999439147536</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H12:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/P&E/PDF/Inferencial/Clase 12 (Método Mínimos Cuadrados).xlsx
+++ b/P&E/PDF/Inferencial/Clase 12 (Método Mínimos Cuadrados).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEAB1BA-5439-4236-9F69-D8E049F19031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DAF05-2D37-4EA9-AAD6-05C8CEF4295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,11 +1024,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,35 +1036,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4682,14 +4682,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
       <c r="H15" s="7">
         <f>COUNT(G3:G8)</f>
         <v>6</v>
@@ -4704,81 +4704,81 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="H17" s="48" t="str">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="H17" s="41" t="str">
         <f>"-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)"</f>
         <v>-05.5211 mide la variación de la variable explicada (y, cantidad de errores que van disminuyendo) para un aumento de 1 unidad en la variable explicativa (x, ante cada semana más de experiencia)</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
       <c r="H21" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="43" t="s">
         <v>12</v>
       </c>
@@ -4789,7 +4789,7 @@
       <c r="M21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="46">
         <f>ROUND(L21/L22,4)</f>
         <v>-0.52110000000000001</v>
       </c>
@@ -4814,27 +4814,27 @@
         <v>9</v>
       </c>
       <c r="H22" s="42"/>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="50"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="43"/>
       <c r="L22" s="2">
         <f>ROUND(J10-G10^2/6,4)</f>
         <v>264.83330000000001</v>
       </c>
       <c r="M22" s="43"/>
-      <c r="N22" s="41"/>
+      <c r="N22" s="46"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -4855,60 +4855,60 @@
       <c r="F24" s="7">
         <v>24</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
       <c r="H28" s="4" t="s">
         <v>42</v>
       </c>
@@ -4921,20 +4921,20 @@
       <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="30" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
       <c r="H30" s="4" t="s">
         <v>43</v>
       </c>
@@ -4947,20 +4947,20 @@
       <c r="A31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -4987,7 +4987,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="47" t="s">
         <v>59</v>
       </c>
       <c r="H38" s="43"/>
@@ -5009,10 +5009,10 @@
         <f>I10-H15*N15*K15</f>
         <v>-138.00300000000016</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="H40" s="42" t="s">
         <v>49</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="L41" s="42"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="47" t="s">
         <v>60</v>
       </c>
       <c r="H44" t="s">
@@ -5060,10 +5060,10 @@
         <f>J10-H15*K15^2</f>
         <v>264.82806665999988</v>
       </c>
-      <c r="F45" s="46"/>
+      <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F46" s="46"/>
+      <c r="F46" s="47"/>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:13" ht="20.25" x14ac:dyDescent="0.35">
@@ -5087,12 +5087,12 @@
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J51" s="44" t="s">
+      <c r="J51" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="41">
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="46">
         <f>(E39/SQRT(E45*E51))^2</f>
         <v>0.87699919060292209</v>
       </c>
@@ -5100,10 +5100,10 @@
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H52" s="42"/>
       <c r="I52" s="43"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="41"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="46"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -5114,43 +5114,64 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="40" t="str">
+      <c r="C56" s="50" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D56" s="28">
         <v>10.0907</v>
       </c>
-      <c r="E56" s="40" t="str">
+      <c r="E56" s="50" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F56" s="41">
+      <c r="F56" s="46">
         <f>ROUND(D56/4,4)</f>
         <v>2.5226999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="40"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="40"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="29" t="str">
         <f>"6 - 2"</f>
         <v>6 - 2</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:L52"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A15:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B26:F28"/>
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="B31:F32"/>
+    <mergeCell ref="F38:F40"/>
     <mergeCell ref="H17:O19"/>
     <mergeCell ref="H24:O26"/>
     <mergeCell ref="H21:H22"/>
@@ -5159,27 +5180,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A15:F19"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B26:F28"/>
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="B31:F32"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:L52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -5192,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC737F11-7792-42E4-866C-5493A185EE12}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5388,7 +5388,7 @@
       <c r="H9" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="52" t="s">
         <v>86</v>
       </c>
       <c r="J9" s="32">
@@ -5403,7 +5403,7 @@
         <f>D24*Tabla1[[#Totals],[xy]]</f>
         <v>1325.3023443634338</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="46">
         <f>SQRT((J9-K9-L9)/K10)</f>
         <v>9.3609611655115707E-2</v>
       </c>
@@ -5432,12 +5432,12 @@
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="52"/>
       <c r="K10" s="2">
         <f>7-2</f>
         <v>5</v>
       </c>
-      <c r="M10" s="41"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
@@ -5529,15 +5529,15 @@
       <c r="A17" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="53" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="33">
@@ -5554,7 +5554,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25">
         <f>Tabla1[[#Totals],[x^2]]-7*B13^2</f>
         <v>10.188571428571407</v>
